--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,15 +247,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31326902314047983</v>
+        <v>0.31495577387670332</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29875338354525993</v>
+        <v>0.29995170256871462</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.035877248038571577</v>
+        <v>-0.036136496927096855</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0024385150783993257</v>
+        <v>0.0024186164830646982</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0094430857151132884</v>
+        <v>0.009249891549247562</v>
       </c>
       <c r="G3" s="0">
-        <v>0.012013088726821265</v>
+        <v>0.012021500634562681</v>
       </c>
       <c r="H3" s="0">
-        <v>0.002583085217092042</v>
+        <v>0.0025695792794785659</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0035082928364125183</v>
+        <v>-0.0035193048376580003</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.0016078734576617237</v>
+        <v>-0.001607857489587361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31195993462681509</v>
+        <v>0.31483440806860907</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02462618035586819</v>
+        <v>0.026281582206143461</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.015480861654900374</v>
+        <v>0.015362852253286603</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.001430385551856761</v>
+        <v>-0.0014388995676532894</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00099553594567569886</v>
+        <v>0.0009941533763434963</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.024146079978360262</v>
+        <v>-0.023996567393343906</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00029740153462414366</v>
+        <v>-0.00029823583450753826</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.002022159810047941</v>
+        <v>-0.0020221795403743692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.32619106528154834</v>
+        <v>0.32957681152449203</v>
       </c>
       <c r="C5" s="0">
-        <v>0.091255865274676232</v>
+        <v>0.093449540689269972</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.084539432919837204</v>
+        <v>-0.085828319481238924</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0023863856089113384</v>
+        <v>-0.002831419804499683</v>
       </c>
       <c r="F5" s="0">
-        <v>0.049441397962461442</v>
+        <v>0.049427710168189101</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.042374858383115624</v>
+        <v>-0.04234004063183202</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0015255519261049189</v>
+        <v>0.0015486764363057378</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0015147010230722969</v>
+        <v>0.0015220017230588548</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00020570861971747068</v>
+        <v>-0.00020574564337005885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.19348208773828457</v>
+        <v>0.19407582724197681</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0023204117157247053</v>
+        <v>-0.0001487364395650905</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.15183078685102641</v>
+        <v>-0.1516242291503907</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0009505559899891981</v>
+        <v>0.00096637203242044454</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0068177010211920314</v>
+        <v>0.0068568891634963715</v>
       </c>
       <c r="I6" s="0">
-        <v>0.010949970076609895</v>
+        <v>0.010365537395881377</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0019168294957531695</v>
+        <v>-0.0019168172843576081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.15315124865352575</v>
+        <v>0.15199332735154328</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.09152143270379412</v>
+        <v>0.09030264296679949</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.02103408675414466</v>
+        <v>-0.021788883724172533</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.16320660762336631</v>
+        <v>-0.16301558838003802</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0094330806117820763</v>
+        <v>0.0094656590258840045</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0064158175239671794</v>
+        <v>0.0064141078248433903</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.036539524453208766</v>
+        <v>0.036539562396250141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.011878289677149489</v>
+        <v>-0.01273268742377659</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.15867982984798154</v>
+        <v>-0.15856457677863064</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.059139185459582376</v>
+        <v>0.058813721446626041</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0056408129768271177</v>
+        <v>0.0056190148229535337</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00011285285769765569</v>
+        <v>-0.00011303728995474196</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.067311768403580663</v>
+        <v>-0.066776146655054519</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0037050856578248748</v>
+        <v>-0.0037049903212595381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.12295958274135937</v>
+        <v>-0.12383135141753154</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.13011027386493695</v>
+        <v>-0.12920472074159292</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.015198750485179121</v>
+        <v>-0.015055349818621153</v>
       </c>
       <c r="F9" s="0">
-        <v>0.065933360034094057</v>
+        <v>0.064885485108694407</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.013249897919694904</v>
+        <v>-0.013249811742968159</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00033645989107747466</v>
+        <v>0.00034039143958367307</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0016755429175020261</v>
+        <v>-0.0016979732422327184</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.017116647802068397</v>
+        <v>-0.017116684996618087</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.13455094234678716</v>
+        <v>0.14340453251790483</v>
       </c>
       <c r="C10" s="0">
-        <v>0.34481694007210462</v>
+        <v>0.35469750838914704</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0021361966957984921</v>
+        <v>-0.0019693849580461886</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0034815795965201114</v>
+        <v>-0.0034653549814477828</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00044112720581263541</v>
+        <v>-0.00044114831926257052</v>
       </c>
       <c r="I10" s="0">
-        <v>0.012962489740333641</v>
+        <v>0.012905574257154887</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.10362774744037155</v>
+        <v>-0.10390905555104726</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0094177462142110979</v>
+        <v>0.0094177450989381961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.4849536903760977</v>
+        <v>0.49299077886473064</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.2684173512354332</v>
+        <v>0.26721787761266153</v>
       </c>
       <c r="E11" s="0">
-        <v>0.012147922809729237</v>
+        <v>0.012315644453660223</v>
       </c>
       <c r="F11" s="0">
-        <v>0.022376337342414569</v>
+        <v>0.022643520796621137</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.041026874158798438</v>
+        <v>-0.041210784729053818</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.003478869136492964</v>
+        <v>-0.0034898875043763052</v>
       </c>
       <c r="I11" s="0">
-        <v>0.081914742896537815</v>
+        <v>0.082057667984602428</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.01005213704048713</v>
+        <v>0.010052207732710622</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.11704734015663382</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.31449776328142265</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>8.5196468178857176e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.0012765737226577861</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00015170472543905443</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.01454784024952116</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.045554753197235009</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,12 +388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
@@ -260,50 +401,50 @@
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
     <col min="10" max="10" width="16.24609375" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31495577387670332</v>
+        <v>0.3139732242066941</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29995170256871462</v>
+        <v>0.29897178805002378</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.036136496927096855</v>
+        <v>-0.036305535454667345</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0024186164830646982</v>
+        <v>0.0024108133047079845</v>
       </c>
       <c r="F3" s="0">
-        <v>0.009249891549247562</v>
+        <v>0.0094176327550734712</v>
       </c>
       <c r="G3" s="0">
-        <v>0.012021500634562681</v>
+        <v>0.012048676720294919</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0025695792794785659</v>
+        <v>0.002582647702004994</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0035193048376580003</v>
+        <v>-0.0035478136577224225</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.001607857489587361</v>
+        <v>-0.0016078575263619443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31483440806860907</v>
+        <v>0.31727045813877336</v>
       </c>
       <c r="C4" s="0">
-        <v>0.026281582206143461</v>
+        <v>0.029329359943469181</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.015362852253286603</v>
+        <v>0.015376400626567968</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0014388995676532894</v>
+        <v>-0.0014337420305449038</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0009941533763434963</v>
+        <v>0.00098477242737908012</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.023996567393343906</v>
+        <v>-0.023637643734419417</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00029823583450753826</v>
+        <v>-0.00029824004319334275</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0020221795403743692</v>
+        <v>-0.0020222371005089723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.32957681152449203</v>
+        <v>0.33076679769282091</v>
       </c>
       <c r="C5" s="0">
-        <v>0.093449540689269972</v>
+        <v>0.090590133833101258</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.085828319481238924</v>
+        <v>-0.08411594787846631</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.002831419804499683</v>
+        <v>-0.0022290776321171471</v>
       </c>
       <c r="F5" s="0">
-        <v>0.049427710168189101</v>
+        <v>0.048773829890191904</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.04234004063183202</v>
+        <v>-0.042365115383090381</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0015486764363057378</v>
+        <v>0.0015008225296320246</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0015220017230588548</v>
+        <v>0.0015474139838359585</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00020574564337005885</v>
+        <v>-0.00020571978903977106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.19407582724197681</v>
+        <v>0.19822659611175719</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0001487364395650905</v>
+        <v>0.0035429340136777778</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.1516242291503907</v>
+        <v>-0.15197340916642238</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00096637203242044454</v>
+        <v>0.00096946167814691798</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0068568891634963715</v>
+        <v>0.0068924194141236012</v>
       </c>
       <c r="I6" s="0">
-        <v>0.010365537395881377</v>
+        <v>0.0099452462816238991</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0019168172843576081</v>
+        <v>-0.001916853802213514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.15199332735154328</v>
+        <v>0.15399792727853057</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.09030264296679949</v>
+        <v>0.088578978781731793</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.021788883724172533</v>
+        <v>-0.023054385710145578</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.16301558838003802</v>
+        <v>-0.16216403631296741</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0094656590258840045</v>
+        <v>0.0094709636654228772</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0064141078248433903</v>
+        <v>0.0064002299635540112</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.036539562396250141</v>
+        <v>0.036539580779177683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.01273268742377659</v>
+        <v>-0.018658565463065435</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.15856457677863064</v>
+        <v>-0.16730690256952863</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.058813721446626041</v>
+        <v>0.059178216979057445</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0056190148229535337</v>
+        <v>0.0056324290791824527</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00011303728995474196</v>
+        <v>-0.00011306989688550415</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.066776146655054519</v>
+        <v>-0.066342151576124511</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0037049903212595381</v>
+        <v>-0.0037050147572972592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.12383135141753154</v>
+        <v>-0.12962802214155228</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.12920472074159292</v>
+        <v>-0.12916791145375436</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.015055349818621153</v>
+        <v>-0.015073983191417234</v>
       </c>
       <c r="F9" s="0">
-        <v>0.064885485108694407</v>
+        <v>0.064983790790189719</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.013249811742968159</v>
+        <v>-0.013247281644824091</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00034039143958367307</v>
+        <v>0.0003402574910153671</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0016979732422327184</v>
+        <v>-0.0016876510778255933</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.017116684996618087</v>
+        <v>-0.017116677591870647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.14340453251790483</v>
+        <v>0.13183041182865604</v>
       </c>
       <c r="C10" s="0">
-        <v>0.35469750838914704</v>
+        <v>0.34817492460393201</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0019693849580461886</v>
+        <v>-0.0021984609466074883</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0034653549814477828</v>
+        <v>-0.0034986510722410085</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00044114831926257052</v>
+        <v>-0.00044139409242638643</v>
       </c>
       <c r="I10" s="0">
-        <v>0.012905574257154887</v>
+        <v>0.013012799712059321</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.10390905555104726</v>
+        <v>-0.10300851046454043</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0094177450989381961</v>
+        <v>0.0094177262300323139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.49299077886473064</v>
+        <v>0.48579403162782264</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.26721787761266153</v>
+        <v>0.26896977665402855</v>
       </c>
       <c r="E11" s="0">
-        <v>0.012315644453660223</v>
+        <v>0.012662828393353193</v>
       </c>
       <c r="F11" s="0">
-        <v>0.022643520796621137</v>
+        <v>0.024387828321154936</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.041210784729053818</v>
+        <v>-0.041188994184038631</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0034898875043763052</v>
+        <v>-0.0034998403359399102</v>
       </c>
       <c r="I11" s="0">
-        <v>0.082057667984602428</v>
+        <v>0.082579925270771987</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.010052207732710622</v>
+        <v>0.010052095679836476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.11704734015663382</v>
+        <v>0.05320239378487121</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.31449776328142265</v>
+        <v>-0.32820892446210065</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>8.5196468178857176e-05</v>
+        <v>5.1503538158029802e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0012765737226577861</v>
+        <v>-0.01141760030656669</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00015170472543905443</v>
+        <v>-0.013602203849768827</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.01454784024952116</v>
+        <v>-0.03408209491501106</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.045554753197235009</v>
+        <v>-0.045332317847662229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.2425262414084503</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.2888788633218512</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.21837679071411872</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.19546142428122973</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.010154840061338738</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00029296143329054293</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.015390705030640274</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.041904101086688267</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.30174103162021032</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.031754714735793346</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0018180276184158128</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00057228577756959515</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>5.3627270816385518e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.024994645127491395</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00012874422330624857</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -396,7 +471,7 @@
     <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.3139732242066941</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29897178805002378</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.31727045813877336</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.33076679769282091</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.19822659611175719</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.15399792727853057</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>-0.018658565463065435</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.12962802214155228</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.13183041182865604</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.48579403162782264</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.05320239378487121</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>-0.2425262414084503</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.30174103162021032</v>
+        <v>-0.30471025234319254</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.031754714735793346</v>
+        <v>-0.028813140364713375</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0018180276184158128</v>
+        <v>-0.0017805625548794892</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00057228577756959515</v>
+        <v>-0.00078863551216401095</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>5.3627270816385518e-05</v>
+        <v>-0.0034070002728805444</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.024994645127491395</v>
+        <v>-0.021479165848879721</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00012874422330624857</v>
+        <v>-0.0059155063812250941</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.4142892345807318</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.033030876476551015</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.021652336381438913</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.31165818134658446</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0065632799672910953</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.42605242371194479</v>
       </c>
     </row>
   </sheetData>
